--- a/data/trans_orig/P58-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P58-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6801</v>
+        <v>6751</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27004</v>
+        <v>27516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02173140019933987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009799611845137085</v>
+        <v>0.009727193562406772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03891012703504373</v>
+        <v>0.03964824186703016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>30518</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19381</v>
+        <v>19277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44771</v>
+        <v>45945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04433512947863764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02815604757247959</v>
+        <v>0.02800423773680616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06504039384453876</v>
+        <v>0.06674604304666863</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -786,19 +786,19 @@
         <v>45600</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30235</v>
+        <v>31405</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63654</v>
+        <v>62819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03298698182698046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02187160750517046</v>
+        <v>0.02271826901659884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04604704972106369</v>
+        <v>0.04544313321886129</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19921</v>
+        <v>19748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48417</v>
+        <v>47726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0458514454102994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02870407650796331</v>
+        <v>0.02845482613772264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06976373818746512</v>
+        <v>0.06876882050446226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -836,19 +836,19 @@
         <v>31764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21399</v>
+        <v>22162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45702</v>
+        <v>45899</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04614479704836569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03108741873297026</v>
+        <v>0.0321964695022107</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06639286836366033</v>
+        <v>0.06667984613451627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -857,19 +857,19 @@
         <v>63585</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47441</v>
+        <v>46976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82501</v>
+        <v>82659</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04599752056750283</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03431853958348405</v>
+        <v>0.03398254416171052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05968081457256471</v>
+        <v>0.05979519355211658</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>647109</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>626971</v>
+        <v>628833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>662505</v>
+        <v>662867</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9324171543903608</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9034003289390758</v>
+        <v>0.9060836346338881</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9546010695919258</v>
+        <v>0.955122944075757</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>649</v>
@@ -907,19 +907,19 @@
         <v>626069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>607536</v>
+        <v>607015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>641717</v>
+        <v>640931</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9095200734729967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8825960137293699</v>
+        <v>0.8818395387788921</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9322530751762692</v>
+        <v>0.9311103686667218</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1302</v>
@@ -928,19 +928,19 @@
         <v>1273178</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1248307</v>
+        <v>1247606</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1295283</v>
+        <v>1294931</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9210154976055167</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9030242279049761</v>
+        <v>0.9025169578368831</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9370064043272466</v>
+        <v>0.9367520259025378</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>54164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39197</v>
+        <v>38681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74959</v>
+        <v>73850</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05631483638412996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04075418409936937</v>
+        <v>0.04021712086707158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07793644509156203</v>
+        <v>0.07678316186408964</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -1053,19 +1053,19 @@
         <v>57957</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41267</v>
+        <v>41861</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80457</v>
+        <v>80067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05984823649076099</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04261371371423807</v>
+        <v>0.04322704337660043</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08308280598227577</v>
+        <v>0.0826800096628777</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>67</v>
@@ -1074,19 +1074,19 @@
         <v>112120</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>90579</v>
+        <v>87843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>141704</v>
+        <v>139471</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05808757099053597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04692748137643009</v>
+        <v>0.04550990139717377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07341461626488008</v>
+        <v>0.07225760764387493</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>69101</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51637</v>
+        <v>50121</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>93745</v>
+        <v>93985</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07184589668710284</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05368813559433216</v>
+        <v>0.05211136120018817</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09746802863491769</v>
+        <v>0.09771774429945014</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -1124,19 +1124,19 @@
         <v>47070</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34350</v>
+        <v>34092</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63936</v>
+        <v>63305</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04860597956335615</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03547123064938741</v>
+        <v>0.0352043393599857</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06602262854838821</v>
+        <v>0.06537097021661088</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>76</v>
@@ -1145,19 +1145,19 @@
         <v>116171</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>91809</v>
+        <v>92277</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>142639</v>
+        <v>144395</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06018624759784235</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04756466931585367</v>
+        <v>0.04780708190925676</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07389903079594434</v>
+        <v>0.07480877093078923</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>838535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>810219</v>
+        <v>807927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>861654</v>
+        <v>861939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8718392669287672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8423984742801532</v>
+        <v>0.8400155870019372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8958766814473215</v>
+        <v>0.8961732102619661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>832</v>
@@ -1195,19 +1195,19 @@
         <v>863367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>839219</v>
+        <v>840243</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>883989</v>
+        <v>884559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8915457839458829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.866609524207496</v>
+        <v>0.8676673576601601</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9128410089947188</v>
+        <v>0.9134298613676551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1656</v>
@@ -1216,19 +1216,19 @@
         <v>1701902</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1667828</v>
+        <v>1667191</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1737876</v>
+        <v>1734159</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8817261814116216</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8640734180084304</v>
+        <v>0.8637433635753202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9003640159315925</v>
+        <v>0.8984382768918081</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>66478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48866</v>
+        <v>49608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86035</v>
+        <v>90379</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09797708975358327</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07201990099777326</v>
+        <v>0.07311393487564775</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1268001093361104</v>
+        <v>0.1332026194242479</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1341,19 +1341,19 @@
         <v>62827</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46717</v>
+        <v>45738</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82552</v>
+        <v>82063</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09187432858278562</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06831556350597455</v>
+        <v>0.06688368240458066</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1207178004708324</v>
+        <v>0.1200030625995913</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -1362,19 +1362,19 @@
         <v>129306</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103055</v>
+        <v>102508</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>158303</v>
+        <v>157043</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09491376662925589</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07564472732057141</v>
+        <v>0.07524353731841955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1161983888283332</v>
+        <v>0.1152739623372658</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>66152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46965</v>
+        <v>49193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87929</v>
+        <v>89345</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09749623607210262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06921775371159956</v>
+        <v>0.07250136804480292</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1295913121652517</v>
+        <v>0.1316779399564104</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1412,19 +1412,19 @@
         <v>57346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44161</v>
+        <v>43640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73344</v>
+        <v>73648</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08385844669033274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06457817313205004</v>
+        <v>0.0638158250277016</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1072530476882804</v>
+        <v>0.1076972278761684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -1433,19 +1433,19 @@
         <v>123498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100309</v>
+        <v>101297</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148708</v>
+        <v>150637</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09065065348928927</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07362903383079608</v>
+        <v>0.07435459617094897</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1091553884120727</v>
+        <v>0.1105711149782308</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>545879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>519375</v>
+        <v>518575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>570292</v>
+        <v>568670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8045266741743141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7654648772556067</v>
+        <v>0.7642864032370523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8405082433334418</v>
+        <v>0.8381171891501515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>602</v>
@@ -1483,19 +1483,19 @@
         <v>563668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>542006</v>
+        <v>540894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584382</v>
+        <v>583818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8242672247268816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7925905215982127</v>
+        <v>0.7909650685975689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8545581282854481</v>
+        <v>0.8537330361256776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1165</v>
@@ -1504,19 +1504,19 @@
         <v>1109546</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1077954</v>
+        <v>1076031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1140795</v>
+        <v>1142636</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8144355798814549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7912457402047928</v>
+        <v>0.7898347014051423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8373732153499102</v>
+        <v>0.8387239059475649</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>68691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51932</v>
+        <v>51316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89012</v>
+        <v>90699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07290341478509021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05511600327057189</v>
+        <v>0.0544622721161753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0944699346954571</v>
+        <v>0.09626104041874478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1629,19 +1629,19 @@
         <v>73302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55302</v>
+        <v>54150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95496</v>
+        <v>96382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0705767151109834</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0532459007450281</v>
+        <v>0.05213681570891415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09194559614157427</v>
+        <v>0.09279899782032015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1650,19 +1650,19 @@
         <v>141993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115036</v>
+        <v>115479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170090</v>
+        <v>171904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07168345481334544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05807477301764787</v>
+        <v>0.05829838704236274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08586781359275231</v>
+        <v>0.08678371719436054</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>105880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83930</v>
+        <v>83802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129939</v>
+        <v>129550</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1123727641399495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08907697614105776</v>
+        <v>0.08894039441198555</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1379073607453933</v>
+        <v>0.1374939858167471</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -1700,19 +1700,19 @@
         <v>113456</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93648</v>
+        <v>93640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136894</v>
+        <v>136633</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1092377593753844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09016644157287966</v>
+        <v>0.09015916695369613</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1318045262401961</v>
+        <v>0.1315536781183603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>163</v>
@@ -1721,19 +1721,19 @@
         <v>219336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190233</v>
+        <v>188209</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253623</v>
+        <v>255375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1107289850280335</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09603701962140108</v>
+        <v>0.09501521958627433</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1280383991400242</v>
+        <v>0.1289230357386529</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>767651</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>734714</v>
+        <v>739990</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>791332</v>
+        <v>794771</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8147238210749603</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7797670212380591</v>
+        <v>0.7853668787108907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8398577215311841</v>
+        <v>0.8435071760237397</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>855</v>
@@ -1771,19 +1771,19 @@
         <v>851855</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>822610</v>
+        <v>822846</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>876564</v>
+        <v>879761</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8201855255136322</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7920281780560842</v>
+        <v>0.7922555220792505</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.843976275853945</v>
+        <v>0.8470548613235774</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1732</v>
@@ -1792,19 +1792,19 @@
         <v>1619505</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1576722</v>
+        <v>1578025</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1655179</v>
+        <v>1661619</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8175875601586211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7959887362573144</v>
+        <v>0.7966466183128276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8355971904192451</v>
+        <v>0.8388483765929664</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>204415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175187</v>
+        <v>168200</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243006</v>
+        <v>238033</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06238740062729376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05346713267501402</v>
+        <v>0.05133459321319873</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07416544452589145</v>
+        <v>0.07264767811438756</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -1917,19 +1917,19 @@
         <v>224604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189433</v>
+        <v>192960</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260869</v>
+        <v>262990</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06646667827835435</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05605866462599759</v>
+        <v>0.05710221267301797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0771984502075488</v>
+        <v>0.07782632367060643</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -1938,19 +1938,19 @@
         <v>429019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379658</v>
+        <v>375574</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>476739</v>
+        <v>479229</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06445849756599953</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0570421975928932</v>
+        <v>0.05642859924641581</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07162821044596245</v>
+        <v>0.07200238625562158</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>272955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>235508</v>
+        <v>235627</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>314092</v>
+        <v>316123</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08330578942801851</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07187687500314076</v>
+        <v>0.07191329335384623</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09586089141475403</v>
+        <v>0.09648065355233365</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>210</v>
@@ -1988,19 +1988,19 @@
         <v>249635</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>218569</v>
+        <v>218057</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>279946</v>
+        <v>281893</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07387405925164651</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06468070241121252</v>
+        <v>0.06452916281507348</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08284392421065352</v>
+        <v>0.08342006954124151</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>372</v>
@@ -2009,19 +2009,19 @@
         <v>522590</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>470941</v>
+        <v>472818</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>573669</v>
+        <v>579754</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07851718978712273</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07075719027808113</v>
+        <v>0.07103908529160916</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08619163502141176</v>
+        <v>0.08710581762441778</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>2799173</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2747729</v>
+        <v>2747732</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2846892</v>
+        <v>2850361</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8543068099446878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8386061856285186</v>
+        <v>0.8386071748281158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8688704994406453</v>
+        <v>0.8699295073313446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2938</v>
@@ -2059,19 +2059,19 @@
         <v>2904958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2865158</v>
+        <v>2856179</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2949613</v>
+        <v>2949529</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8596592624699991</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.847881236330258</v>
+        <v>0.8452241066940667</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8728740804620028</v>
+        <v>0.872848977565687</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5855</v>
@@ -2080,19 +2080,19 @@
         <v>5704131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5642363</v>
+        <v>5634010</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5772150</v>
+        <v>5771550</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8570243126468777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.847743965232807</v>
+        <v>0.8464888864838584</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8672439184705061</v>
+        <v>0.8671537034659964</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>26645</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17520</v>
+        <v>16207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41190</v>
+        <v>39819</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03787634714247826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02490528196598326</v>
+        <v>0.02303855740000953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0585525112573123</v>
+        <v>0.05660409743936119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2445,19 +2445,19 @@
         <v>18808</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11568</v>
+        <v>11515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30157</v>
+        <v>29873</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0269818224204857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01659539897666373</v>
+        <v>0.0165190313118041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04326441888504891</v>
+        <v>0.04285670382186227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -2466,19 +2466,19 @@
         <v>45453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33172</v>
+        <v>33139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62000</v>
+        <v>61537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03245405114466244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02368559901381169</v>
+        <v>0.02366173556950335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04426937677820764</v>
+        <v>0.04393851435269628</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>61650</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42188</v>
+        <v>43697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84401</v>
+        <v>86025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08763724503228029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05997148043355157</v>
+        <v>0.06211586591526896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1199785761405607</v>
+        <v>0.1222873368787649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -2516,19 +2516,19 @@
         <v>55410</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39999</v>
+        <v>39617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77757</v>
+        <v>76417</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07949232321761612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05738357995669131</v>
+        <v>0.05683509465316778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1115519608301795</v>
+        <v>0.1096298002738417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -2537,19 +2537,19 @@
         <v>117060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>92632</v>
+        <v>91603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147882</v>
+        <v>145862</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08358344937940312</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06614130531980816</v>
+        <v>0.06540645630114718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1055907115830735</v>
+        <v>0.1041484558364177</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>615174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>590189</v>
+        <v>590043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>637537</v>
+        <v>635981</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8744864078252415</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8389697938945505</v>
+        <v>0.8387626040584132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.906276155448198</v>
+        <v>0.9040642004413048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>604</v>
@@ -2587,19 +2587,19 @@
         <v>622832</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>598448</v>
+        <v>599243</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>640617</v>
+        <v>639983</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8935258543618981</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8585434421569351</v>
+        <v>0.8596850670254007</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9190397155637994</v>
+        <v>0.9181311838108451</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1226</v>
@@ -2608,19 +2608,19 @@
         <v>1238006</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1205503</v>
+        <v>1209651</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1265449</v>
+        <v>1267624</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8839624994759344</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8607543056609192</v>
+        <v>0.8637161286526926</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9035574884326317</v>
+        <v>0.9051101890067936</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>49108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35023</v>
+        <v>35109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66435</v>
+        <v>65154</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04824252579599616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03440517679751604</v>
+        <v>0.03449036480168407</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06526336685285015</v>
+        <v>0.06400572705989413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -2733,19 +2733,19 @@
         <v>47664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34259</v>
+        <v>35195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64078</v>
+        <v>64401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04617763711315628</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03319112041750707</v>
+        <v>0.03409783280687317</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06208005637712181</v>
+        <v>0.06239277920283608</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -2754,19 +2754,19 @@
         <v>96772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76554</v>
+        <v>78328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>118605</v>
+        <v>122200</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04720291177536055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03734099810241769</v>
+        <v>0.03820631827860924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05785248834747604</v>
+        <v>0.0596061817605775</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>81773</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59474</v>
+        <v>58556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>109015</v>
+        <v>111054</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08033160731030059</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05842558127067351</v>
+        <v>0.05752398097260501</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.107092634030657</v>
+        <v>0.1090963647079553</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -2804,19 +2804,19 @@
         <v>85127</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64938</v>
+        <v>62902</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>112080</v>
+        <v>109823</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0824729912722709</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06291326609010446</v>
+        <v>0.06094100462081459</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1085850280850794</v>
+        <v>0.1063989943047768</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>83</v>
@@ -2825,19 +2825,19 @@
         <v>166901</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>133315</v>
+        <v>136524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>201044</v>
+        <v>204276</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08140973457639941</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0650274485362803</v>
+        <v>0.06659268159416783</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09806418771575537</v>
+        <v>0.09964059071243669</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>887065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>854195</v>
+        <v>857070</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>911930</v>
+        <v>913175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8714258668937033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8391353048031852</v>
+        <v>0.8419596949966824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8958520980241483</v>
+        <v>0.8970747073179377</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>856</v>
@@ -2875,19 +2875,19 @@
         <v>899393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>869153</v>
+        <v>872515</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>922239</v>
+        <v>926225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8713493716145728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8420523687556916</v>
+        <v>0.8453094272104434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.893483116922314</v>
+        <v>0.8973444398675913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1717</v>
@@ -2896,19 +2896,19 @@
         <v>1786458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1748130</v>
+        <v>1745101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1822539</v>
+        <v>1821949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.87138735364824</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8526919986827789</v>
+        <v>0.8512141868203353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8889867768987403</v>
+        <v>0.8886990459523513</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>74980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>57751</v>
+        <v>57795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>93766</v>
+        <v>96148</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09896679887647514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07622592052441764</v>
+        <v>0.07628450398716716</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1237639240527118</v>
+        <v>0.1269074770888289</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>80</v>
@@ -3021,19 +3021,19 @@
         <v>96632</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77744</v>
+        <v>76894</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116298</v>
+        <v>117036</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1243376653611212</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1000340962490364</v>
+        <v>0.09894023335013588</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1496423807217839</v>
+        <v>0.1505920590216383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -3042,19 +3042,19 @@
         <v>171612</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>145626</v>
+        <v>144990</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>201240</v>
+        <v>199594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1118138228346058</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09488313534487543</v>
+        <v>0.09446846741025444</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.131118553552183</v>
+        <v>0.1300461543417798</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>108823</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83407</v>
+        <v>83033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134962</v>
+        <v>136860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1436378249994744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.110090948315978</v>
+        <v>0.1095973324206687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1781384095703954</v>
+        <v>0.1806438021998477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3092,19 +3092,19 @@
         <v>101619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78777</v>
+        <v>79345</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126971</v>
+        <v>129939</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1307541738095912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1013630292088512</v>
+        <v>0.1020946833146297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1633753605002974</v>
+        <v>0.1671939669648758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -3113,19 +3113,19 @@
         <v>210442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>172902</v>
+        <v>175192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>248852</v>
+        <v>245245</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1371139415678701</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1126543471976753</v>
+        <v>0.11414684237272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1621402325400236</v>
+        <v>0.1597901534542279</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>573820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>547647</v>
+        <v>542609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>603631</v>
+        <v>602995</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7573953761240504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7228484855137274</v>
+        <v>0.7161990385612698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7967430846725693</v>
+        <v>0.7959037127602202</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>571</v>
@@ -3163,19 +3163,19 @@
         <v>578923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>550067</v>
+        <v>550561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>604294</v>
+        <v>604920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7449081608292876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7077781875099876</v>
+        <v>0.7084144506340601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7775531867783976</v>
+        <v>0.7783588857147216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1150</v>
@@ -3184,19 +3184,19 @@
         <v>1152743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1113713</v>
+        <v>1110810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1193540</v>
+        <v>1194487</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7510722355975241</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7256420652497688</v>
+        <v>0.7237501349650283</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7776532042818752</v>
+        <v>0.7782705354066555</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>58494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44878</v>
+        <v>43477</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77179</v>
+        <v>76487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06171997329136571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04735253436947829</v>
+        <v>0.04587471226440377</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08143468124485019</v>
+        <v>0.08070434462017979</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -3309,19 +3309,19 @@
         <v>68270</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53028</v>
+        <v>53196</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88269</v>
+        <v>86461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06490201644176549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05041183527270252</v>
+        <v>0.05057139020189068</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08391381765065581</v>
+        <v>0.08219529985954804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -3330,19 +3330,19 @@
         <v>126765</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105922</v>
+        <v>105180</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152371</v>
+        <v>155787</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06339387147393902</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05297073230149214</v>
+        <v>0.05259955734689647</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07619909943242563</v>
+        <v>0.07790772605181902</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>106975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84014</v>
+        <v>81058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134813</v>
+        <v>136292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1128743300685226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08864704589611334</v>
+        <v>0.08552748669469766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1422471419163488</v>
+        <v>0.1438075959456115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -3380,19 +3380,19 @@
         <v>110176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84943</v>
+        <v>85995</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>138098</v>
+        <v>136296</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1047397570619413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08075185278182791</v>
+        <v>0.08175172940732298</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1312842908968767</v>
+        <v>0.129570680171265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>113</v>
@@ -3401,19 +3401,19 @@
         <v>217151</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182040</v>
+        <v>181160</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255045</v>
+        <v>254500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.108595177860918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0910365244052154</v>
+        <v>0.09059622530218411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1275455138742952</v>
+        <v>0.1272728724963794</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>782269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>753230</v>
+        <v>751132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>807787</v>
+        <v>811344</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8254056966401117</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7947656924251907</v>
+        <v>0.7925516193329446</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8523302337813465</v>
+        <v>0.8560841667553818</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>883</v>
@@ -3451,19 +3451,19 @@
         <v>873455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>841393</v>
+        <v>841019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>902348</v>
+        <v>899819</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8303582264962932</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.799878257645153</v>
+        <v>0.7995232572800326</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8578260207582307</v>
+        <v>0.8554216857451999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1695</v>
@@ -3472,19 +3472,19 @@
         <v>1655724</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1610202</v>
+        <v>1616499</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1689443</v>
+        <v>1694951</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.828010950665143</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8052461425053971</v>
+        <v>0.808395258315732</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.844873458648895</v>
+        <v>0.8476282059242186</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>209227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179264</v>
+        <v>175819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239751</v>
+        <v>237806</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06105651713010651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0523126699788356</v>
+        <v>0.05130725496631507</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06996387590954584</v>
+        <v>0.06939637962170171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -3597,19 +3597,19 @@
         <v>231374</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>200104</v>
+        <v>202176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265366</v>
+        <v>265721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06502358101283792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05623561932893989</v>
+        <v>0.05681791633843752</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07457646235347724</v>
+        <v>0.07467615707274065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>356</v>
@@ -3618,19 +3618,19 @@
         <v>440601</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>398749</v>
+        <v>401241</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>490370</v>
+        <v>484201</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.063077399268209</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05708580805890392</v>
+        <v>0.05744253770981805</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07020242861438433</v>
+        <v>0.06931926748321078</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>359222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>311031</v>
+        <v>309471</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>409011</v>
+        <v>410538</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1048279579455588</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09076480677393044</v>
+        <v>0.09030959359306008</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.119357381426452</v>
+        <v>0.119802968425897</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>190</v>
@@ -3668,19 +3668,19 @@
         <v>352332</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>306439</v>
+        <v>310962</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>400310</v>
+        <v>401018</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09901670287900963</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08611938565324276</v>
+        <v>0.08739048787742806</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1125001735347601</v>
+        <v>0.1126989850495907</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>363</v>
@@ -3689,19 +3689,19 @@
         <v>711554</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>646797</v>
+        <v>651522</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>782266</v>
+        <v>782587</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1018676170206073</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09259681825759852</v>
+        <v>0.09327328594981663</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1119908236166506</v>
+        <v>0.1120368083604466</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>2858330</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2802408</v>
+        <v>2800736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2912438</v>
+        <v>2914772</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8341155249243346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8177964244228372</v>
+        <v>0.817308673097968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8499053780966126</v>
+        <v>0.8505866051668036</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2914</v>
@@ -3739,19 +3739,19 @@
         <v>2974603</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2916175</v>
+        <v>2919612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3024482</v>
+        <v>3027857</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8359597161081525</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8195395052045925</v>
+        <v>0.8205054073181143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8499774224600947</v>
+        <v>0.8509258327326399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5788</v>
@@ -3760,19 +3760,19 @@
         <v>5832933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5757201</v>
+        <v>5749977</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5907307</v>
+        <v>5901261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8350549837111837</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.824213026752188</v>
+        <v>0.8231788752710923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.845702567590806</v>
+        <v>0.8448369631165265</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>31199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19487</v>
+        <v>21350</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45238</v>
+        <v>45000</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04623379735051773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02887794994227346</v>
+        <v>0.0316391077175116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06703954253040842</v>
+        <v>0.06668685778311116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4125,19 +4125,19 @@
         <v>33583</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23672</v>
+        <v>22968</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46913</v>
+        <v>45658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04991182386618238</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03518222670869372</v>
+        <v>0.03413657722788781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06972375101614847</v>
+        <v>0.06785813491364419</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -4146,19 +4146,19 @@
         <v>64781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49487</v>
+        <v>49753</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82325</v>
+        <v>83254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04807013458859488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03672159841782023</v>
+        <v>0.03691827816802452</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06108802901412968</v>
+        <v>0.06177752899128024</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>57582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41234</v>
+        <v>40408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75135</v>
+        <v>77248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08533151150109737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06110581197313694</v>
+        <v>0.05988087799136661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1113448090978936</v>
+        <v>0.1144753717668495</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -4196,19 +4196,19 @@
         <v>65440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49391</v>
+        <v>46653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85726</v>
+        <v>85227</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0972593955736694</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0734069542467006</v>
+        <v>0.06933700508804774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.127410102687856</v>
+        <v>0.1266681267158931</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -4217,19 +4217,19 @@
         <v>123022</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97799</v>
+        <v>98998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148816</v>
+        <v>150462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09128677517324445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07257087174914149</v>
+        <v>0.07346027456097691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1104273237650523</v>
+        <v>0.1116485350577771</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>586020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>562703</v>
+        <v>564803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>604591</v>
+        <v>605755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8684346911483849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8338809193489969</v>
+        <v>0.836992798372137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8959562073414694</v>
+        <v>0.8976805397279403</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>592</v>
@@ -4267,19 +4267,19 @@
         <v>573816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>551855</v>
+        <v>552312</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>593544</v>
+        <v>595375</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8528287805601482</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8201895139481067</v>
+        <v>0.8208677638340662</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8821485888666148</v>
+        <v>0.8848704390027591</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1186</v>
@@ -4288,19 +4288,19 @@
         <v>1159836</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1129319</v>
+        <v>1129405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1188706</v>
+        <v>1188194</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8606430902381607</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8379983738567676</v>
+        <v>0.8380621989181689</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8820653583343594</v>
+        <v>0.8816854430582252</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>80650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63896</v>
+        <v>60916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100360</v>
+        <v>101219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0788810305939241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06249442634005745</v>
+        <v>0.05957916854794204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09815855831677942</v>
+        <v>0.0989981484778306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -4413,19 +4413,19 @@
         <v>76737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61142</v>
+        <v>59357</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>95555</v>
+        <v>95117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07357965169585964</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05862637255483499</v>
+        <v>0.05691500026193318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09162332938248316</v>
+        <v>0.09120366486179679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>132</v>
@@ -4434,19 +4434,19 @@
         <v>157388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>133278</v>
+        <v>134244</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184232</v>
+        <v>187551</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07620405426559404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06453085916784582</v>
+        <v>0.06499823987010439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08920156223776832</v>
+        <v>0.09080865956679425</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>90179</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69813</v>
+        <v>69566</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116779</v>
+        <v>117303</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08820030326208039</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0682815010107595</v>
+        <v>0.06804015677724677</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1142172167293058</v>
+        <v>0.1147292133684261</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>62</v>
@@ -4484,19 +4484,19 @@
         <v>105778</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82192</v>
+        <v>84070</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>132108</v>
+        <v>131202</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1014258723938651</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07881023555140319</v>
+        <v>0.08061102383208797</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1266723952060441</v>
+        <v>0.1258037285574981</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>114</v>
@@ -4505,19 +4505,19 @@
         <v>195957</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>164881</v>
+        <v>164338</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>230355</v>
+        <v>227367</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09487866679263407</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07983242535844294</v>
+        <v>0.07956925848052385</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1115335697390812</v>
+        <v>0.110086756070887</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>851602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>823184</v>
+        <v>820553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>877954</v>
+        <v>881259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8329186661439956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.805124339648523</v>
+        <v>0.8025510208143153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8586926707671533</v>
+        <v>0.8619251672736853</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>843</v>
@@ -4555,19 +4555,19 @@
         <v>860397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>829270</v>
+        <v>830973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>887468</v>
+        <v>886730</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8249944759102752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7951476263403705</v>
+        <v>0.7967810848327349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8509512356445511</v>
+        <v>0.8502435998801471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1682</v>
@@ -4576,19 +4576,19 @@
         <v>1711999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1667711</v>
+        <v>1672047</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1750142</v>
+        <v>1750190</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8289172789417719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8074737307127698</v>
+        <v>0.8095728958316722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8473854138452082</v>
+        <v>0.8474086616671863</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>43888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30525</v>
+        <v>30704</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59087</v>
+        <v>61235</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05778147427124766</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04018774340333878</v>
+        <v>0.04042370017363765</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07779163567828042</v>
+        <v>0.08061976222523874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -4701,19 +4701,19 @@
         <v>62488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47807</v>
+        <v>47569</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78784</v>
+        <v>78242</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07960111822069355</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0608993291622275</v>
+        <v>0.06059670925813574</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1003609911167492</v>
+        <v>0.09966938338755052</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -4722,19 +4722,19 @@
         <v>106376</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>85635</v>
+        <v>85927</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128367</v>
+        <v>129868</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06887112260366265</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05544267051619571</v>
+        <v>0.05563214274305455</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08310913360655979</v>
+        <v>0.08408048051359528</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>75557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56433</v>
+        <v>55546</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98481</v>
+        <v>97874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09947534369796437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07429770869669296</v>
+        <v>0.07312999414742098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1296566907635934</v>
+        <v>0.1288577166134822</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -4772,19 +4772,19 @@
         <v>55889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40163</v>
+        <v>40563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76544</v>
+        <v>76428</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.071194854836457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05116251918108702</v>
+        <v>0.05167167692725963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09750653197644553</v>
+        <v>0.09735910996183403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -4793,19 +4793,19 @@
         <v>131445</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104503</v>
+        <v>104827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161074</v>
+        <v>159012</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08510202592662372</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06765839166518332</v>
+        <v>0.06786866211357899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1042842231311833</v>
+        <v>0.1029497347653058</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>640107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>615363</v>
+        <v>615731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>662747</v>
+        <v>663186</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.842743182030788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8101655521485482</v>
+        <v>0.8106507044283964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8725496115553032</v>
+        <v>0.8731276659011713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>647</v>
@@ -4843,19 +4843,19 @@
         <v>666635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>641469</v>
+        <v>642404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>686478</v>
+        <v>688440</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8492040269428495</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8171461605225691</v>
+        <v>0.8183378826174836</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8744820630600447</v>
+        <v>0.8769809332729641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1267</v>
@@ -4864,19 +4864,19 @@
         <v>1306742</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269092</v>
+        <v>1273442</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1337846</v>
+        <v>1338587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8460268514697136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8216514261117952</v>
+        <v>0.8244674880310835</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8661649896080658</v>
+        <v>0.866644708468488</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>52898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38888</v>
+        <v>38589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70739</v>
+        <v>72075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0564204884371904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04147802664150961</v>
+        <v>0.041158895352521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0754498276633216</v>
+        <v>0.07687410951839718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -4989,19 +4989,19 @@
         <v>58680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45259</v>
+        <v>44872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77599</v>
+        <v>76188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05621922631423708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04336079969798962</v>
+        <v>0.04299023055395461</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07434448142988405</v>
+        <v>0.07299282856447288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -5010,19 +5010,19 @@
         <v>111578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90394</v>
+        <v>91856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133922</v>
+        <v>135378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05631446294808673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04562239445819812</v>
+        <v>0.04636043170032289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06759124530648583</v>
+        <v>0.06832604794902442</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>92429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71026</v>
+        <v>72832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115910</v>
+        <v>116575</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09858375619342211</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07575604408034212</v>
+        <v>0.0776821992025357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1236280574247614</v>
+        <v>0.12433742938776</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -5060,19 +5060,19 @@
         <v>98998</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77184</v>
+        <v>77254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124547</v>
+        <v>127665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09484572689836571</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07394708405681351</v>
+        <v>0.07401390596618045</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1193228372249388</v>
+        <v>0.1223100575061108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -5081,19 +5081,19 @@
         <v>191427</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>159871</v>
+        <v>160306</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228516</v>
+        <v>224725</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09661455116628388</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08068826504957061</v>
+        <v>0.0809077929897609</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1153338193543267</v>
+        <v>0.1134204861350801</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>792240</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>766625</v>
+        <v>766015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>818021</v>
+        <v>817977</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8449957553693875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8176746985260456</v>
+        <v>0.8170240850759066</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8724938633298033</v>
+        <v>0.8724468513863817</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>850</v>
@@ -5131,19 +5131,19 @@
         <v>886101</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>857408</v>
+        <v>853920</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>911866</v>
+        <v>911648</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8489350467873972</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.821445986684558</v>
+        <v>0.8181046454658619</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8736196139180372</v>
+        <v>0.8734113110109297</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1682</v>
@@ -5152,19 +5152,19 @@
         <v>1678341</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1638786</v>
+        <v>1638658</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1713589</v>
+        <v>1714720</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8470709858856293</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8271076500845205</v>
+        <v>0.8270426305208516</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8648612888292925</v>
+        <v>0.8654318148488911</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>208635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178565</v>
+        <v>176523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242952</v>
+        <v>240151</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06146537622500136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05260646658767695</v>
+        <v>0.05200500269044089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07157546518609487</v>
+        <v>0.07075034398245002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -5277,19 +5277,19 @@
         <v>231488</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>203737</v>
+        <v>203835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263514</v>
+        <v>262465</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0653082960503657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05747910497053656</v>
+        <v>0.05750685240403976</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07434366286041492</v>
+        <v>0.07404760048396845</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>370</v>
@@ -5298,19 +5298,19 @@
         <v>440123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>397845</v>
+        <v>398053</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482878</v>
+        <v>487293</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06342842605491429</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05733547160285182</v>
+        <v>0.0573655495116546</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06959010244276442</v>
+        <v>0.07022629261066635</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>315746</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>273226</v>
+        <v>272610</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>359419</v>
+        <v>359120</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09302104998909676</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08049440411220621</v>
+        <v>0.08031273968430665</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1058875571727495</v>
+        <v>0.1057992295919533</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>194</v>
@@ -5348,19 +5348,19 @@
         <v>326105</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>286277</v>
+        <v>285641</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>372109</v>
+        <v>371115</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09200201250676818</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08076556837150173</v>
+        <v>0.08058601136875004</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.104980836320967</v>
+        <v>0.104700407849392</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>381</v>
@@ -5369,19 +5369,19 @@
         <v>641851</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>583643</v>
+        <v>585073</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>708964</v>
+        <v>708932</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09250050273667773</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08411182601497796</v>
+        <v>0.08431797938253496</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1021725725148624</v>
+        <v>0.1021679646588065</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>2869969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2818431</v>
+        <v>2818182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2920155</v>
+        <v>2922507</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8455135737859019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8303301418614731</v>
+        <v>0.830256604880554</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.860298769797828</v>
+        <v>0.8609915654461501</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2932</v>
@@ -5419,19 +5419,19 @@
         <v>2986949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2935117</v>
+        <v>2939249</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3034111</v>
+        <v>3035673</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8426896914428661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8280667082833578</v>
+        <v>0.8292324728291188</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8559952701224488</v>
+        <v>0.8564359695897964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5817</v>
@@ -5440,19 +5440,19 @@
         <v>5856918</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5778652</v>
+        <v>5784037</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5924705</v>
+        <v>5932574</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.844071071208408</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8327918013745585</v>
+        <v>0.833567770491207</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8538402014453702</v>
+        <v>0.8549741825322159</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>42788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30585</v>
+        <v>31721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57536</v>
+        <v>59692</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06194783419181254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04428060139008669</v>
+        <v>0.04592490943909663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08330016143106383</v>
+        <v>0.08642135884614746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -5805,19 +5805,19 @@
         <v>34639</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25112</v>
+        <v>25737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45488</v>
+        <v>46710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04729523689098854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03428731558005486</v>
+        <v>0.03514076519953156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06210878484870581</v>
+        <v>0.0637774082878077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -5826,19 +5826,19 @@
         <v>77427</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62408</v>
+        <v>62967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94955</v>
+        <v>97178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05440694735370077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04385373347325938</v>
+        <v>0.04424617353519602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06672361261249087</v>
+        <v>0.06828625075388216</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>23830</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13937</v>
+        <v>14845</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39402</v>
+        <v>40158</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03450008739358763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02017824069744393</v>
+        <v>0.0214926081652535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05704564087403673</v>
+        <v>0.05814050490785299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -5876,19 +5876,19 @@
         <v>22153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16007</v>
+        <v>15778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29600</v>
+        <v>29554</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03024757700637317</v>
+        <v>0.03024757700637316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02185597971502706</v>
+        <v>0.02154344225390658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04041555803275134</v>
+        <v>0.0403522052859787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -5897,19 +5897,19 @@
         <v>45983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34937</v>
+        <v>33632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62651</v>
+        <v>62059</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03231155392409306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02455014021644128</v>
+        <v>0.02363276182754558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04402457064228198</v>
+        <v>0.04360853359198862</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>624092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>605182</v>
+        <v>604331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>640369</v>
+        <v>639718</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9035520784145999</v>
+        <v>0.9035520784145997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8761734456932614</v>
+        <v>0.8749414922321106</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9271164996914677</v>
+        <v>0.9261752058749312</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1147</v>
@@ -5947,19 +5947,19 @@
         <v>675600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>662341</v>
+        <v>662394</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>686411</v>
+        <v>686150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9224571861026383</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9043530182557002</v>
+        <v>0.9044254775267944</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9372181572355082</v>
+        <v>0.9368611440930159</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1816</v>
@@ -5968,19 +5968,19 @@
         <v>1299693</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1278006</v>
+        <v>1275763</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1320758</v>
+        <v>1319134</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9132814987222061</v>
+        <v>0.9132814987222062</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8980424770122993</v>
+        <v>0.8964666532366846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9280841962469895</v>
+        <v>0.9269425086241335</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>91029</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71593</v>
+        <v>73025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114641</v>
+        <v>117293</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08697612550962623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06840605946721524</v>
+        <v>0.069774142500564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1095375196882206</v>
+        <v>0.1120714355560854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>90</v>
@@ -6093,19 +6093,19 @@
         <v>68212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55271</v>
+        <v>54038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83367</v>
+        <v>83534</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06377615446093052</v>
+        <v>0.0637761544609305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05167654985358958</v>
+        <v>0.0505238943952165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07794525082876295</v>
+        <v>0.07810135870671039</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>164</v>
@@ -6114,19 +6114,19 @@
         <v>159241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134185</v>
+        <v>135048</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>188540</v>
+        <v>187641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07525026881553984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06340994319686345</v>
+        <v>0.06381757656747815</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08909599401407281</v>
+        <v>0.08867113838564189</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>39528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27693</v>
+        <v>28349</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55695</v>
+        <v>57797</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03776776063608265</v>
+        <v>0.03776776063608264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02645968332056697</v>
+        <v>0.02708666794829404</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05321589308187923</v>
+        <v>0.05522348450467182</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -6164,19 +6164,19 @@
         <v>35476</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26126</v>
+        <v>26309</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47566</v>
+        <v>46754</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03316907575739974</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02442695123146277</v>
+        <v>0.02459788417442394</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04447265160321041</v>
+        <v>0.04371310653790476</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>84</v>
@@ -6185,19 +6185,19 @@
         <v>75004</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>59067</v>
+        <v>60616</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94861</v>
+        <v>93989</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0354434680860827</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02791243983180674</v>
+        <v>0.02864466244823288</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0448270642500321</v>
+        <v>0.04441528290173731</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>916038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>891258</v>
+        <v>890309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>938604</v>
+        <v>939149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8752561138542909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8515793589152035</v>
+        <v>0.8506724683287101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8968178281711551</v>
+        <v>0.8973383791956552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1374</v>
@@ -6235,19 +6235,19 @@
         <v>965868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>947508</v>
+        <v>947647</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>983043</v>
+        <v>981499</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9030547697816699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8858889497880607</v>
+        <v>0.8860192654192667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9191135693310143</v>
+        <v>0.9176699246044567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2228</v>
@@ -6256,19 +6256,19 @@
         <v>1881905</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1848327</v>
+        <v>1849109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1909339</v>
+        <v>1912275</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8893062630983776</v>
+        <v>0.8893062630983775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8734383571393013</v>
+        <v>0.8738080422414017</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9022700901732853</v>
+        <v>0.9036576043612994</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>92161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71883</v>
+        <v>72203</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115546</v>
+        <v>115376</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1147599472869144</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08951014147741855</v>
+        <v>0.08990879907362964</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1438800236583405</v>
+        <v>0.143668400618413</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -6381,19 +6381,19 @@
         <v>114811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97224</v>
+        <v>97792</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>137276</v>
+        <v>137823</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1420942322869856</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1203284162206875</v>
+        <v>0.1210303005313724</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1698981938858293</v>
+        <v>0.1705752755093127</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>208</v>
@@ -6402,19 +6402,19 @@
         <v>206972</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180824</v>
+        <v>179870</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>239104</v>
+        <v>238114</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1284688181203251</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.112239029323246</v>
+        <v>0.1116463684085078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1484138256676387</v>
+        <v>0.1477992561367801</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>58710</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45235</v>
+        <v>44293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75946</v>
+        <v>76311</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07310717604844488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05632749023073761</v>
+        <v>0.05515390200560827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0945692652364495</v>
+        <v>0.09502356759455165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -6452,19 +6452,19 @@
         <v>51334</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40497</v>
+        <v>41475</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64316</v>
+        <v>63721</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0635327795332027</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05012058848878929</v>
+        <v>0.05133113712913819</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07959936783176493</v>
+        <v>0.07886283919518083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -6473,19 +6473,19 @@
         <v>110044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92197</v>
+        <v>91891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131008</v>
+        <v>130790</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06830536158229104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05722721799949479</v>
+        <v>0.05703758445359242</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08131765517335142</v>
+        <v>0.08118214690674742</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>652202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>624686</v>
+        <v>624967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675860</v>
+        <v>676705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8121328766646408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7778693528063512</v>
+        <v>0.7782198469165322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8415916915472295</v>
+        <v>0.8426442137225408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>831</v>
@@ -6523,19 +6523,19 @@
         <v>641847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616272</v>
+        <v>617426</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>662104</v>
+        <v>660752</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7943729881798118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7627201400936955</v>
+        <v>0.7641488027304376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8194443544624663</v>
+        <v>0.8177706805619066</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1381</v>
@@ -6544,19 +6544,19 @@
         <v>1294049</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1258008</v>
+        <v>1259715</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1325351</v>
+        <v>1326424</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8032258202973837</v>
+        <v>0.8032258202973838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7808550890013065</v>
+        <v>0.7819143992867551</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8226553233053686</v>
+        <v>0.8233209967472971</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>72167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54890</v>
+        <v>55219</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93929</v>
+        <v>93447</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07289154510929506</v>
+        <v>0.07289154510929508</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05544065883638807</v>
+        <v>0.05577372844156146</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09487199801502776</v>
+        <v>0.09438519358054216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -6669,19 +6669,19 @@
         <v>77250</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62603</v>
+        <v>62645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95430</v>
+        <v>94374</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06928302920657489</v>
+        <v>0.06928302920657491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05614689673720714</v>
+        <v>0.05618386352270891</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08558745664494155</v>
+        <v>0.08464038523794694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -6690,19 +6690,19 @@
         <v>149417</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127807</v>
+        <v>127795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175734</v>
+        <v>177423</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07098020739662536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06071424805590089</v>
+        <v>0.06070837677895487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08348186457914783</v>
+        <v>0.08428420478911541</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>58553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44749</v>
+        <v>44333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76400</v>
+        <v>76653</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05914106639973205</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04519837502831362</v>
+        <v>0.0447776145313853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07716690332981239</v>
+        <v>0.07742197973425458</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -6740,19 +6740,19 @@
         <v>66800</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53353</v>
+        <v>53460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82581</v>
+        <v>81293</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0599104528801921</v>
+        <v>0.05991045288019212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04785017523819726</v>
+        <v>0.04794682556905386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07406409854564464</v>
+        <v>0.0729084646911775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>158</v>
@@ -6761,19 +6761,19 @@
         <v>125353</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104553</v>
+        <v>104371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147964</v>
+        <v>149653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05954859055519247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04966772016759706</v>
+        <v>0.04958125616703727</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0702899823349398</v>
+        <v>0.07109193836362607</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>859342</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>835978</v>
+        <v>834428</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>881117</v>
+        <v>881080</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8679673884909729</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8443689075852904</v>
+        <v>0.8428039760488348</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8899613473218131</v>
+        <v>0.8899243635742864</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1365</v>
@@ -6811,19 +6811,19 @@
         <v>970944</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>950109</v>
+        <v>948250</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>990312</v>
+        <v>989196</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8708065179132328</v>
+        <v>0.8708065179132329</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8521206738800599</v>
+        <v>0.8504530098193246</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8881765705636244</v>
+        <v>0.8871756604973576</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2248</v>
@@ -6832,19 +6832,19 @@
         <v>1830286</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1798757</v>
+        <v>1796644</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1860107</v>
+        <v>1861133</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8694712020481823</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8544935716740117</v>
+        <v>0.8534899675719786</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.883637980952806</v>
+        <v>0.8841253747063108</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>298144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260752</v>
+        <v>259422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>336901</v>
+        <v>340875</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.084449681598739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07385815589761723</v>
+        <v>0.07348164951486247</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0954274048436792</v>
+        <v>0.09655324459496323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>370</v>
@@ -6957,19 +6957,19 @@
         <v>294912</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264579</v>
+        <v>266163</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>328450</v>
+        <v>328831</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07917239905730378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0710292513668261</v>
+        <v>0.07145439944339631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08817607678706811</v>
+        <v>0.08827838783823136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>617</v>
@@ -6978,19 +6978,19 @@
         <v>593056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>543001</v>
+        <v>546157</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>646550</v>
+        <v>641101</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08174030595764763</v>
+        <v>0.08174030595764765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07484122277865062</v>
+        <v>0.07527619516409424</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08911333529753702</v>
+        <v>0.08836221359041679</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>180621</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>156349</v>
+        <v>153159</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>214113</v>
+        <v>208972</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05116100220383606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0442859100870692</v>
+        <v>0.04338230254636698</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06064764265330317</v>
+        <v>0.0591915487766498</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>261</v>
@@ -7028,19 +7028,19 @@
         <v>175763</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>154268</v>
+        <v>154383</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>199160</v>
+        <v>200021</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04718554101116893</v>
+        <v>0.04718554101116892</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04141489500045614</v>
+        <v>0.04144576567023406</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0534667377085674</v>
+        <v>0.05369784878692803</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>432</v>
@@ -7049,19 +7049,19 @@
         <v>356384</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>319861</v>
+        <v>320033</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>394377</v>
+        <v>394543</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.04911998627699371</v>
+        <v>0.04911998627699373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04408602274841918</v>
+        <v>0.04410982071330258</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05435649410809792</v>
+        <v>0.05437937272034917</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>3051674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2999446</v>
+        <v>3006683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3092343</v>
+        <v>3099651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8643893161974251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8495957993274549</v>
+        <v>0.8516457399943007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8759087990407076</v>
+        <v>0.8779788571428042</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4717</v>
@@ -7099,19 +7099,19 @@
         <v>3254260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3217656</v>
+        <v>3214097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3290464</v>
+        <v>3287267</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8736420599315273</v>
+        <v>0.8736420599315272</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8638153877592721</v>
+        <v>0.8628598719450427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8833615258601194</v>
+        <v>0.8825030915490736</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7673</v>
@@ -7120,19 +7120,19 @@
         <v>6305933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6243540</v>
+        <v>6248097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6358956</v>
+        <v>6359983</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8691397077653585</v>
+        <v>0.8691397077653586</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8605401772299942</v>
+        <v>0.8611683069835973</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8764478731100651</v>
+        <v>0.8765894324259029</v>
       </c>
     </row>
     <row r="23">
